--- a/mvp/меню 4.xlsx
+++ b/mvp/меню 4.xlsx
@@ -11,7 +11,7 @@
     <sheet name="борщ" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="олів'є" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="вареники" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="борщ5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="борщ1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>борщ5</t>
+          <t>борщ1</t>
         </is>
       </c>
     </row>
